--- a/targets_RVE_1_40_D/exp_curvePH.xlsx
+++ b/targets_RVE_1_40_D/exp_curvePH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi.sharepoint.com/sites/LianGroup-CPparameteroptimization/Shared Documents/CP parameter optimization/02 Reference for CSC/PH material(RVE3615Grains)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Crystal-Plasticity-Project\targets_RVE_1_40_D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:40009_{A4B702C3-EF89-41A3-A873-F90A199E52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3322F27A-2329-4786-A0F0-CCB8DBE73F28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED663B-80CF-4C56-B294-FC1489CDE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="15" windowWidth="21855" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RVE_1_40_D_tensionX" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>PH_1</t>
   </si>
@@ -136,13 +136,43 @@
   </si>
   <si>
     <t>[500-1500]</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>stage 1: fit yeild points</t>
+  </si>
+  <si>
+    <t>stage 2: Hardening parameter</t>
+  </si>
+  <si>
+    <t>[1-200]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[100-1200]</t>
+  </si>
+  <si>
+    <t>[100-2000]</t>
+  </si>
+  <si>
+    <t>(1-5]</t>
+  </si>
+  <si>
+    <t>PH2</t>
+  </si>
+  <si>
+    <t>PH3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +313,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,6 +513,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -637,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -645,6 +694,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1791,7 +1856,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="600474816"/>
@@ -1844,7 +1909,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="600474400"/>
@@ -1892,7 +1957,7 @@
           <a:latin typeface="+mn-lt"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2243,21 +2308,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G1:T54"/>
+  <dimension ref="G1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="R13" workbookViewId="0">
+      <selection activeCell="AA27" sqref="W27:AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" customWidth="1"/>
-    <col min="17" max="17" width="17.1796875" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="10.21875" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="26" max="26" width="29.109375" customWidth="1"/>
+    <col min="27" max="27" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -2267,8 +2336,14 @@
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="7:28" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>3</v>
       </c>
@@ -2299,8 +2374,16 @@
       <c r="T2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="7"/>
+    </row>
+    <row r="3" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>9</v>
       </c>
@@ -2328,8 +2411,18 @@
       <c r="S3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W3" s="8"/>
+      <c r="X3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>13</v>
       </c>
@@ -2357,8 +2450,22 @@
       <c r="S4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>19</v>
       </c>
@@ -2386,8 +2493,24 @@
       <c r="S5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>23</v>
       </c>
@@ -2415,11 +2538,39 @@
       <c r="S6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="10">
+        <v>200</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="7:28" x14ac:dyDescent="0.3">
       <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="10">
+        <v>800</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>28</v>
       </c>
@@ -2438,8 +2589,22 @@
       <c r="R8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G9" s="1">
         <v>8.9898642592000003E-14</v>
       </c>
@@ -2458,8 +2623,14 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>14.1607900419</v>
       </c>
@@ -2478,8 +2649,14 @@
       <c r="R10">
         <v>1.7763326898799999E-4</v>
       </c>
-    </row>
-    <row r="11" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>28.333845697200001</v>
       </c>
@@ -2498,8 +2675,14 @@
       <c r="R11">
         <v>3.5525464404799999E-4</v>
       </c>
-    </row>
-    <row r="12" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>42.519174690100002</v>
       </c>
@@ -2518,8 +2701,16 @@
       <c r="R12">
         <v>5.3288413364400002E-4</v>
       </c>
-    </row>
-    <row r="13" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>56.716784751699997</v>
       </c>
@@ -2538,8 +2729,18 @@
       <c r="R13">
         <v>7.1295680792199997E-4</v>
       </c>
-    </row>
-    <row r="14" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W13" s="8"/>
+      <c r="X13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>70.924672295500002</v>
       </c>
@@ -2558,8 +2759,22 @@
       <c r="R14">
         <v>9.0259424390199999E-4</v>
       </c>
-    </row>
-    <row r="15" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W14" s="8"/>
+      <c r="X14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>85.064312551300006</v>
       </c>
@@ -2578,8 +2793,24 @@
       <c r="R15">
         <v>1.09766198786E-3</v>
       </c>
-    </row>
-    <row r="16" spans="7:20" x14ac:dyDescent="0.35">
+      <c r="W15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>98.065742810299994</v>
       </c>
@@ -2598,8 +2829,22 @@
       <c r="R16">
         <v>1.29474083683E-3</v>
       </c>
-    </row>
-    <row r="17" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="10">
+        <v>200</v>
+      </c>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>107.203212597</v>
       </c>
@@ -2618,8 +2863,22 @@
       <c r="R17">
         <v>1.4928406997100001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="10">
+        <v>800</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>112.627023116</v>
       </c>
@@ -2638,8 +2897,22 @@
       <c r="R18">
         <v>1.69158487818E-3</v>
       </c>
-    </row>
-    <row r="19" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X18" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>116.15763159700001</v>
       </c>
@@ -2658,8 +2931,14 @@
       <c r="R19">
         <v>1.8907449387000001E-3</v>
       </c>
-    </row>
-    <row r="20" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>118.789533961</v>
       </c>
@@ -2678,8 +2957,14 @@
       <c r="R20">
         <v>2.0901579239999998E-3</v>
       </c>
-    </row>
-    <row r="21" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>120.92744721</v>
       </c>
@@ -2698,8 +2983,16 @@
       <c r="R21">
         <v>2.2897161647400001E-3</v>
       </c>
-    </row>
-    <row r="22" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22">
         <v>122.74348786900001</v>
       </c>
@@ -2718,8 +3011,18 @@
       <c r="R22">
         <v>2.4893507853499999E-3</v>
       </c>
-    </row>
-    <row r="23" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W22" s="8"/>
+      <c r="X22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G23">
         <v>124.317733801</v>
       </c>
@@ -2738,8 +3041,22 @@
       <c r="R23">
         <v>2.68901882006E-3</v>
       </c>
-    </row>
-    <row r="24" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W23" s="8"/>
+      <c r="X23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G24">
         <v>125.693197502</v>
       </c>
@@ -2758,8 +3075,24 @@
       <c r="R24">
         <v>2.88869365632E-3</v>
       </c>
-    </row>
-    <row r="25" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>126.900109165</v>
       </c>
@@ -2778,8 +3111,22 @@
       <c r="R25">
         <v>3.0883586668099998E-3</v>
       </c>
-    </row>
-    <row r="26" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25" s="10">
+        <v>200</v>
+      </c>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G26">
         <v>127.964980282</v>
       </c>
@@ -2798,8 +3145,22 @@
       <c r="R26">
         <v>3.2880034424500001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X26" s="10">
+        <v>800</v>
+      </c>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>50</v>
+      </c>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G27">
         <v>128.91208139700001</v>
       </c>
@@ -2818,8 +3179,21 @@
       <c r="R27">
         <v>3.4876215553000002E-3</v>
       </c>
-    </row>
-    <row r="28" spans="7:18" x14ac:dyDescent="0.35">
+      <c r="W27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X27" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>129.76278392899999</v>
       </c>
@@ -2839,7 +3213,7 @@
         <v>3.68720908116E-3</v>
       </c>
     </row>
-    <row r="29" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>130.53512386</v>
       </c>
@@ -2859,7 +3233,7 @@
         <v>3.8867636289499998E-3</v>
       </c>
     </row>
-    <row r="30" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>131.24386941899999</v>
       </c>
@@ -2879,7 +3253,7 @@
         <v>4.0862837213400003E-3</v>
       </c>
     </row>
-    <row r="31" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G31">
         <v>131.90086425000001</v>
       </c>
@@ -2899,7 +3273,7 @@
         <v>4.2857684279899999E-3</v>
       </c>
     </row>
-    <row r="32" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>132.515495394</v>
       </c>
@@ -2919,7 +3293,7 @@
         <v>4.4852172096400003E-3</v>
       </c>
     </row>
-    <row r="33" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>133.09518108200001</v>
       </c>
@@ -2939,7 +3313,7 @@
         <v>4.6846297347499996E-3</v>
       </c>
     </row>
-    <row r="34" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>133.64580151300001</v>
       </c>
@@ -2959,7 +3333,7 @@
         <v>4.8840058215100001E-3</v>
       </c>
     </row>
-    <row r="35" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>152.48775398500001</v>
       </c>
@@ -2979,7 +3353,7 @@
         <v>1.48075778525E-2</v>
       </c>
     </row>
-    <row r="36" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>167.61592189199999</v>
       </c>
@@ -2999,7 +3373,7 @@
         <v>2.4644307525800001E-2</v>
       </c>
     </row>
-    <row r="37" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>180.910148765</v>
       </c>
@@ -3019,7 +3393,7 @@
         <v>3.43944213042E-2</v>
       </c>
     </row>
-    <row r="38" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>192.73456909800001</v>
       </c>
@@ -3039,7 +3413,7 @@
         <v>4.4057625211700001E-2</v>
       </c>
     </row>
-    <row r="39" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>203.32720137199999</v>
       </c>
@@ -3059,7 +3433,7 @@
         <v>5.3633690619099998E-2</v>
       </c>
     </row>
-    <row r="40" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>212.86987023899999</v>
       </c>
@@ -3079,7 +3453,7 @@
         <v>6.3122596410700005E-2</v>
       </c>
     </row>
-    <row r="41" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>221.50841336799999</v>
       </c>
@@ -3099,7 +3473,7 @@
         <v>7.2524608290699996E-2</v>
       </c>
     </row>
-    <row r="42" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>229.36244362299999</v>
       </c>
@@ -3119,7 +3493,7 @@
         <v>8.18403125279E-2</v>
       </c>
     </row>
-    <row r="43" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>236.53143670899999</v>
       </c>
@@ -3139,7 +3513,7 @@
         <v>9.1070577534600003E-2</v>
       </c>
     </row>
-    <row r="44" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>243.09901924499999</v>
       </c>
@@ -3159,7 +3533,7 @@
         <v>0.100216464039</v>
       </c>
     </row>
-    <row r="45" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>249.13580038500001</v>
       </c>
@@ -3179,7 +3553,7 @@
         <v>0.109279127248</v>
       </c>
     </row>
-    <row r="46" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>254.70167855700001</v>
       </c>
@@ -3199,7 +3573,7 @@
         <v>0.118259796423</v>
       </c>
     </row>
-    <row r="47" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G47">
         <v>259.84792373599998</v>
       </c>
@@ -3219,7 +3593,7 @@
         <v>0.12715976001199999</v>
       </c>
     </row>
-    <row r="48" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G48">
         <v>264.618735216</v>
       </c>
@@ -3239,7 +3613,7 @@
         <v>0.13598033807900001</v>
       </c>
     </row>
-    <row r="49" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>269.05241718500002</v>
       </c>
@@ -3259,7 +3633,7 @@
         <v>0.14472285324600001</v>
       </c>
     </row>
-    <row r="50" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>273.18235737399999</v>
       </c>
@@ -3279,7 +3653,7 @@
         <v>0.153388620803</v>
       </c>
     </row>
-    <row r="51" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>277.03769716199997</v>
       </c>
@@ -3299,7 +3673,7 @@
         <v>0.161978960171</v>
       </c>
     </row>
-    <row r="52" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G52">
         <v>280.64390440900002</v>
       </c>
@@ -3319,7 +3693,7 @@
         <v>0.17049518328499999</v>
       </c>
     </row>
-    <row r="53" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G53">
         <v>284.02335413899999</v>
       </c>
@@ -3339,7 +3713,7 @@
         <v>0.17893857291599999</v>
       </c>
     </row>
-    <row r="54" spans="7:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G54">
         <v>287.19592596199999</v>
       </c>
@@ -3360,6 +3734,23 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X22:Y22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
